--- a/biology/Histoire de la zoologie et de la botanique/Hans_Ferdinand_Emil_Julius_Stichel/Hans_Ferdinand_Emil_Julius_Stichel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hans_Ferdinand_Emil_Julius_Stichel/Hans_Ferdinand_Emil_Julius_Stichel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Ferdinand Emil Julius Stichel est un biologiste allemand, né le 16 février 1862 à Wronke, arrondissement de Samter et mort le 2 octobre 1936 dans le quartier de Lichterfelde à Berlin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Königliche Realgymnasium de Berlin puis, en mai 1882, commence à étudier la philosophie à l’université Königl. Friedrich-Wilhelm. Mais la mort de son père le met dans une situation financière délicate et il doit interrompre ses études en 1883.
 Stichel commence alors une carrière comme fonctionnaire dans les chemins de fer et devient en 1893 directeur du matériel ferroviaires de première classe. En 1921, il devient inspecteur supérieur et en 1922 directeur du bureau à Berlin.
